--- a/outputs-HGR-r202-archive/f__Propionibacteriaceae_train.xlsx
+++ b/outputs-HGR-r202-archive/f__Propionibacteriaceae_train.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,23 +633,23 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_2.fasta</t>
+          <t>label_GCF_000826065_6.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7180854538518269</v>
+        <v>0.8901838354418197</v>
       </c>
       <c r="C5" t="n">
-        <v>4.945815359420785e-11</v>
+        <v>0.01193949687014044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0876090791125633</v>
+        <v>2.221562002809458e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1943054669861518</v>
+        <v>0.0978766676880177</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7180854538518269</v>
+        <v>0.8901838354418197</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -660,23 +660,23 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_6.fasta</t>
+          <t>label_GCF_000826065_7.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8901838354418197</v>
+        <v>0.6941088716190043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01193949687014044</v>
+        <v>0.04235523240536095</v>
       </c>
       <c r="D6" t="n">
-        <v>2.221562002809458e-14</v>
+        <v>2.222984129737246e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0978766676880177</v>
+        <v>0.2635358959756125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8901838354418197</v>
+        <v>0.6941088716190043</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -687,104 +687,104 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_7.fasta</t>
+          <t>label_GCF_000826065_0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6941088716190043</v>
+        <v>0.2114121534162024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04235523240536095</v>
+        <v>0.03500111723129928</v>
       </c>
       <c r="D7" t="n">
-        <v>2.222984129737246e-14</v>
+        <v>0.1782827666933866</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2635358959756125</v>
+        <v>0.5753039626591118</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6941088716190043</v>
+        <v>0.5753039626591118</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>g__Arachnia</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_0.fasta</t>
+          <t>label_GCF_000826065_10.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2114121534162024</v>
+        <v>0.3853889615271536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03500111723129928</v>
+        <v>0.04215070780806139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1782827666933866</v>
+        <v>0.2016909350217002</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5753039626591118</v>
+        <v>0.3707693956430849</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5753039626591118</v>
+        <v>0.3853889615271536</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Nigerium</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_10.fasta</t>
+          <t>label_GCF_000826065_4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3853889615271536</v>
+        <v>0.8348649179895677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04215070780806139</v>
+        <v>0.01773600486453229</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2016909350217002</v>
+        <v>2.234735615271571e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3707693956430849</v>
+        <v>0.1473990771458776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3853889615271536</v>
+        <v>0.8348649179895677</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>g__Nigerium</t>
+          <t>g__Arachnia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_4.fasta</t>
+          <t>label_GCF_000826065_8.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8348649179895677</v>
+        <v>0.8628468630612093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01773600486453229</v>
+        <v>0.01193620790769819</v>
       </c>
       <c r="D10" t="n">
-        <v>2.234735615271571e-14</v>
+        <v>2.223552481058475e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1473990771458776</v>
+        <v>0.1252169290310703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8348649179895677</v>
+        <v>0.8628468630612093</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -795,77 +795,77 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_8.fasta</t>
+          <t>label_GCF_000826065_9.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8628468630612093</v>
+        <v>9.06099053766992e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01193620790769819</v>
+        <v>0.1166085105823312</v>
       </c>
       <c r="D11" t="n">
-        <v>2.223552481058475e-14</v>
+        <v>9.060990537669917e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1252169290310703</v>
+        <v>0.8833914894174876</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8628468630612093</v>
+        <v>0.8833914894174876</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>g__Arachnia</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_9.fasta</t>
+          <t>label_GCF_000826065_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.06099053766992e-14</v>
+        <v>0.56206151565158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1166085105823312</v>
+        <v>0.0586730861944137</v>
       </c>
       <c r="D12" t="n">
-        <v>9.060990537669917e-14</v>
+        <v>2.652303961096644e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8833914894174876</v>
+        <v>0.3792653981539797</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8833914894174876</v>
+        <v>0.56206151565158</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Arachnia</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_1.fasta</t>
+          <t>label_GCF_000826065_3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.56206151565158</v>
+        <v>0.5634037007316813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0586730861944137</v>
+        <v>0.05707993648960354</v>
       </c>
       <c r="D13" t="n">
-        <v>2.652303961096644e-14</v>
+        <v>2.66715006778291e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3792653981539797</v>
+        <v>0.3795163627786886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.56206151565158</v>
+        <v>0.5634037007316813</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -876,52 +876,25 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826065_3.fasta</t>
+          <t>label_GCF_000826065_5.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5634037007316813</v>
+        <v>0.5525522300783707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05707993648960354</v>
+        <v>0.03487323903647144</v>
       </c>
       <c r="D14" t="n">
-        <v>2.66715006778291e-14</v>
+        <v>2.90656223466632e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3795163627786886</v>
+        <v>0.4125745308851287</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5634037007316813</v>
+        <v>0.5525522300783707</v>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>g__Arachnia</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000826065_5.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5525522300783707</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03487323903647144</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.90656223466632e-14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.4125745308851287</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5525522300783707</v>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>g__Arachnia</t>
         </is>
@@ -938,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,50 +1040,50 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_0.fasta</t>
+          <t>label_20298_3_1_6.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04219225839655264</v>
+        <v>1.832352448060829e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9577602860528655</v>
+        <v>0.08582846640673433</v>
       </c>
       <c r="D5" t="n">
-        <v>2.367858422938633e-05</v>
+        <v>2.219773187071141e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.377696635248911e-05</v>
+        <v>0.9141532100687628</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9577602860528655</v>
+        <v>0.9141532100687628</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_6.fasta</t>
+          <t>label_GCF_000413335_0.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.832352448060829e-05</v>
+        <v>0.02677638197674813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08582846640673433</v>
+        <v>0.4036906994100015</v>
       </c>
       <c r="D6" t="n">
-        <v>2.219773187071141e-14</v>
+        <v>3.399446407892523e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9141532100687628</v>
+        <v>0.5695329186132164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9141532100687628</v>
+        <v>0.5695329186132164</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1121,50 +1094,50 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000413335_0.fasta</t>
+          <t>label_GCF_000413335_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02677638197674813</v>
+        <v>2.960594732194864e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4036906994100015</v>
+        <v>0.3333333335521078</v>
       </c>
       <c r="D7" t="n">
-        <v>3.399446407892523e-14</v>
+        <v>0.3333333335521078</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5695329186132164</v>
+        <v>0.3333333328957547</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5695329186132164</v>
+        <v>0.3333333335521078</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000413335_1.fasta</t>
+          <t>label_20298_3_1_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.960594732194864e-14</v>
+        <v>0.05822186217976796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3333333335521078</v>
+        <v>0.7357683574346365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3333333335521078</v>
+        <v>2.224519617897463e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3333333328957547</v>
+        <v>0.2060097803855734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3333333335521078</v>
+        <v>0.7357683574346365</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1175,23 +1148,23 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_4.fasta</t>
+          <t>label_20298_3_1_7.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05822186217976796</v>
+        <v>0.01982534516697503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7357683574346365</v>
+        <v>0.8568417784954899</v>
       </c>
       <c r="D9" t="n">
-        <v>2.224519617897463e-14</v>
+        <v>2.229529594496918e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2060097803855734</v>
+        <v>0.1233328763375128</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7357683574346365</v>
+        <v>0.8568417784954899</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1202,77 +1175,77 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_7.fasta</t>
+          <t>label_20298_3_1_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01982534516697503</v>
+        <v>2.814076473854195e-13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8568417784954899</v>
+        <v>0.1803738698006772</v>
       </c>
       <c r="D10" t="n">
-        <v>2.229529594496918e-14</v>
+        <v>2.814076473854195e-13</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1233328763375128</v>
+        <v>0.81962613019876</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8568417784954899</v>
+        <v>0.81962613019876</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_5.fasta</t>
+          <t>label_20298_3_1_1.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.814076473854195e-13</v>
+        <v>0.0197112738336026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1803738698006772</v>
+        <v>0.7014196286417654</v>
       </c>
       <c r="D11" t="n">
-        <v>2.814076473854195e-13</v>
+        <v>2.813008663997651e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.81962613019876</v>
+        <v>0.2788690975246039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.81962613019876</v>
+        <v>0.7014196286417654</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>g__Propionibacterium</t>
+          <t>g__Cutibacterium</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_1.fasta</t>
+          <t>label_20298_3_1_2.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0197112738336026</v>
+        <v>0.02144446571022381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7014196286417654</v>
+        <v>0.6672951629554881</v>
       </c>
       <c r="D12" t="n">
-        <v>2.813008663997651e-14</v>
+        <v>2.791470578824368e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2788690975246039</v>
+        <v>0.3112603713342602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7014196286417654</v>
+        <v>0.6672951629554881</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1283,52 +1256,25 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_1_2.fasta</t>
+          <t>label_20298_3_1_3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02144446571022381</v>
+        <v>0.02656417777361866</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6672951629554881</v>
+        <v>0.6686390098532393</v>
       </c>
       <c r="D13" t="n">
-        <v>2.791470578824368e-14</v>
+        <v>2.904872217953193e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3112603713342602</v>
+        <v>0.304796812373113</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6672951629554881</v>
+        <v>0.6686390098532393</v>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>g__Cutibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_1_3.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.02656417777361866</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6686390098532393</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.904872217953193e-14</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.304796812373113</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6686390098532393</v>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>g__Cutibacterium</t>
         </is>
@@ -1482,7 +1428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1719,23 +1665,23 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_10.fasta</t>
+          <t>label_20298_2_29_13.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03698615477043544</v>
+        <v>0.03827551910786856</v>
       </c>
       <c r="C9" t="n">
-        <v>1.036351037436575e-05</v>
+        <v>0.02597863830390628</v>
       </c>
       <c r="D9" t="n">
-        <v>1.039566773783024e-05</v>
+        <v>2.288376654757911e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9629930860514524</v>
+        <v>0.9357458425882023</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9629930860514524</v>
+        <v>0.9357458425882023</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1746,23 +1692,23 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_16.fasta</t>
+          <t>label_20298_2_29_14.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04426558366935482</v>
+        <v>0.01087409886408662</v>
       </c>
       <c r="C10" t="n">
-        <v>1.106465388086851e-05</v>
+        <v>0.05569605984565159</v>
       </c>
       <c r="D10" t="n">
-        <v>1.111063280488772e-05</v>
+        <v>3.340568603520327e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9557122410439594</v>
+        <v>0.9334298412902283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9557122410439594</v>
+        <v>0.9334298412902283</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1773,23 +1719,23 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_2.fasta</t>
+          <t>label_20298_2_29_18.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03239430748199885</v>
+        <v>0.009929218315128639</v>
       </c>
       <c r="C11" t="n">
-        <v>2.219789671662243e-14</v>
+        <v>0.04486835820911114</v>
       </c>
       <c r="D11" t="n">
-        <v>7.586902234311944e-07</v>
+        <v>2.255538173638558e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9676049338277556</v>
+        <v>0.9452024234757377</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9676049338277556</v>
+        <v>0.9452024234757377</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1800,23 +1746,23 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_24.fasta</t>
+          <t>label_20298_2_29_19.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0599527269012312</v>
+        <v>0.01810923337090139</v>
       </c>
       <c r="C12" t="n">
-        <v>1.56455542419271e-05</v>
+        <v>0.03418607406827797</v>
       </c>
       <c r="D12" t="n">
-        <v>1.574423454703412e-05</v>
+        <v>2.689714263806768e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9400158833099799</v>
+        <v>0.9477046925607938</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9400158833099799</v>
+        <v>0.9477046925607938</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1827,23 +1773,23 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_26.fasta</t>
+          <t>label_20298_2_29_30.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05847446001214159</v>
+        <v>0.06108998501494487</v>
       </c>
       <c r="C13" t="n">
-        <v>1.461196457191617e-05</v>
+        <v>0.0228353009706494</v>
       </c>
       <c r="D13" t="n">
-        <v>1.469309393945726e-05</v>
+        <v>2.221035496117449e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.941496234929347</v>
+        <v>0.9160747140143836</v>
       </c>
       <c r="F13" t="n">
-        <v>0.941496234929347</v>
+        <v>0.9160747140143836</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1854,23 +1800,23 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_31.fasta</t>
+          <t>label_20298_2_29_36.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07130568166883149</v>
+        <v>0.06546640342179001</v>
       </c>
       <c r="C14" t="n">
-        <v>6.626926467063231e-05</v>
+        <v>0.02762993050358601</v>
       </c>
       <c r="D14" t="n">
-        <v>6.792360339366276e-05</v>
+        <v>2.538996904308811e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9285601254631042</v>
+        <v>0.9069036660745986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9285601254631042</v>
+        <v>0.9069036660745986</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1881,23 +1827,23 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_32.fasta</t>
+          <t>label_20298_2_29_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4324856158409988</v>
+        <v>0.009394485349087094</v>
       </c>
       <c r="C15" t="n">
-        <v>6.263838437568869e-13</v>
+        <v>0.0263069441850313</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02154847267793786</v>
+        <v>3.049490009246637e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5459659114804369</v>
+        <v>0.9642985704658511</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5459659114804369</v>
+        <v>0.9642985704658511</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1908,23 +1854,23 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_39.fasta</t>
+          <t>label_20298_2_29_42.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05726386610392414</v>
+        <v>4.271762953614805e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>2.219853652234067e-14</v>
+        <v>0.02974883486608921</v>
       </c>
       <c r="D16" t="n">
-        <v>6.736188636394791e-06</v>
+        <v>0.01997656154939742</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9427293977074173</v>
+        <v>0.9502745608668839</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9427293977074173</v>
+        <v>0.9502745608668839</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1935,23 +1881,23 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_40.fasta</t>
+          <t>label_20298_2_29_1.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02657757485117796</v>
+        <v>0.06158715874371415</v>
       </c>
       <c r="C17" t="n">
-        <v>2.219842406852361e-14</v>
+        <v>0.08503194871629813</v>
       </c>
       <c r="D17" t="n">
-        <v>4.214428763246886e-06</v>
+        <v>2.220385198180976e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9734182107200365</v>
+        <v>0.8533808925399654</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9734182107200365</v>
+        <v>0.8533808925399654</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1962,77 +1908,77 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_41.fasta</t>
+          <t>label_20298_2_29_15.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01198332798743041</v>
+        <v>0.09467603120345079</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9860060810326958</v>
+        <v>0.03948053141599715</v>
       </c>
       <c r="D18" t="n">
-        <v>1.959171576820045e-12</v>
+        <v>2.267417113216838e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002010590977914668</v>
+        <v>0.8658434373805295</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9860060810326958</v>
+        <v>0.8658434373805295</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_43.fasta</t>
+          <t>label_20298_2_29_22.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.264266615451594e-05</v>
+        <v>0.1025813723095737</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999473539247258</v>
+        <v>0.04386481068932686</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220416829423616e-14</v>
+        <v>0.02689507039057182</v>
       </c>
       <c r="E19" t="n">
-        <v>3.409097514101894e-09</v>
+        <v>0.8266587466105276</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999473539247258</v>
+        <v>0.8266587466105276</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>g__Cutibacterium</t>
+          <t>g__Propionibacterium</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_13.fasta</t>
+          <t>label_20298_2_29_23.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03827551910786856</v>
+        <v>0.1184665938511741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02597863830390628</v>
+        <v>0.0259341261181602</v>
       </c>
       <c r="D20" t="n">
-        <v>2.288376654757911e-14</v>
+        <v>0.02585094024165062</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9357458425882023</v>
+        <v>0.8297483397890152</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9357458425882023</v>
+        <v>0.8297483397890152</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2043,23 +1989,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_14.fasta</t>
+          <t>label_20298_2_29_27.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01087409886408662</v>
+        <v>0.096787806550948</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05569605984565159</v>
+        <v>0.02854477538289515</v>
       </c>
       <c r="D21" t="n">
-        <v>3.340568603520327e-14</v>
+        <v>2.239310647489753e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9334298412902283</v>
+        <v>0.8746674180661345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9334298412902283</v>
+        <v>0.8746674180661345</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2070,23 +2016,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_18.fasta</t>
+          <t>label_20298_2_29_38.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.009929218315128639</v>
+        <v>0.108167922109029</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04486835820911114</v>
+        <v>0.07655635753204082</v>
       </c>
       <c r="D22" t="n">
-        <v>2.255538173638558e-14</v>
+        <v>0.03547103052563545</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9452024234757377</v>
+        <v>0.7798046898332948</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9452024234757377</v>
+        <v>0.7798046898332948</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2097,23 +2043,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_19.fasta</t>
+          <t>label_20298_2_29_7.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01810923337090139</v>
+        <v>0.0778282587921412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03418607406827797</v>
+        <v>0.05107419325333472</v>
       </c>
       <c r="D23" t="n">
-        <v>2.689714263806768e-14</v>
+        <v>0.0151906779667955</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9477046925607938</v>
+        <v>0.8559068699877286</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9477046925607938</v>
+        <v>0.8559068699877286</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2124,23 +2070,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_30.fasta</t>
+          <t>label_20298_2_29_9.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06108998501494487</v>
+        <v>0.07703520270333833</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0228353009706494</v>
+        <v>0.0580452742731623</v>
       </c>
       <c r="D24" t="n">
-        <v>2.221035496117449e-14</v>
+        <v>0.01764679523633796</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9160747140143836</v>
+        <v>0.8472727277871615</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9160747140143836</v>
+        <v>0.8472727277871615</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2151,23 +2097,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_36.fasta</t>
+          <t>label_20298_2_29_0.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06546640342179001</v>
+        <v>2.397090894901342e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02762993050358601</v>
+        <v>0.1035172978968051</v>
       </c>
       <c r="D25" t="n">
-        <v>2.538996904308811e-14</v>
+        <v>2.39709089490134e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9069036660745986</v>
+        <v>0.8964827021027154</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9069036660745986</v>
+        <v>0.8964827021027154</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2178,23 +2124,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_4.fasta</t>
+          <t>label_20298_2_29_11.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009394485349087094</v>
+        <v>2.811635557865115e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0263069441850313</v>
+        <v>0.08093077338305389</v>
       </c>
       <c r="D26" t="n">
-        <v>3.049490009246637e-14</v>
+        <v>2.811635557865116e-13</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9642985704658511</v>
+        <v>0.9190692266163838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9642985704658511</v>
+        <v>0.9190692266163838</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2205,23 +2151,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_42.fasta</t>
+          <t>label_20298_2_29_12.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.271762953614805e-08</v>
+        <v>2.868930570258204e-13</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02974883486608921</v>
+        <v>0.07436105813055917</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01997656154939742</v>
+        <v>2.868930570258204e-13</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9502745608668839</v>
+        <v>0.925638941868867</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9502745608668839</v>
+        <v>0.925638941868867</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2232,23 +2178,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_1.fasta</t>
+          <t>label_20298_2_29_20.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06158715874371415</v>
+        <v>2.14344417758256e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08503194871629813</v>
+        <v>0.1243331508173356</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220385198180976e-14</v>
+        <v>2.143444177582561e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8533808925399654</v>
+        <v>0.8756668491822357</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8533808925399654</v>
+        <v>0.8756668491822357</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2259,23 +2205,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_15.fasta</t>
+          <t>label_20298_2_29_25.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09467603120345079</v>
+        <v>7.101459039011085e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03948053141599715</v>
+        <v>0.08773995983374018</v>
       </c>
       <c r="D29" t="n">
-        <v>2.267417113216838e-14</v>
+        <v>7.101459039011086e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8658434373805295</v>
+        <v>0.9122600401648395</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8658434373805295</v>
+        <v>0.9122600401648395</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2286,23 +2232,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_22.fasta</t>
+          <t>label_20298_2_29_28.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1025813723095737</v>
+        <v>7.472950037839837e-13</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04386481068932686</v>
+        <v>0.08719190988643132</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02689507039057182</v>
+        <v>7.472950037839838e-13</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8266587466105276</v>
+        <v>0.9128080901120741</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8266587466105276</v>
+        <v>0.9128080901120741</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2313,23 +2259,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_23.fasta</t>
+          <t>label_20298_2_29_3.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1184665938511741</v>
+        <v>2.427366461560831e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0259341261181602</v>
+        <v>0.07066679838344432</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02585094024165062</v>
+        <v>2.427366461560833e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8297483397890152</v>
+        <v>0.9293332016160701</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8297483397890152</v>
+        <v>0.9293332016160701</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2340,23 +2286,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_27.fasta</t>
+          <t>label_20298_2_29_34.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.096787806550948</v>
+        <v>4.891262997368503e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02854477538289515</v>
+        <v>0.1183495416615388</v>
       </c>
       <c r="D32" t="n">
-        <v>2.239310647489753e-14</v>
+        <v>4.891262997368499e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8746674180661345</v>
+        <v>0.8816504583374829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8746674180661345</v>
+        <v>0.8816504583374829</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2367,23 +2313,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_38.fasta</t>
+          <t>label_20298_2_29_35.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.108167922109029</v>
+        <v>4.310476849600007e-13</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07655635753204082</v>
+        <v>0.1079918090740671</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03547103052563545</v>
+        <v>4.310476849600003e-13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7798046898332948</v>
+        <v>0.8920081909250709</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7798046898332948</v>
+        <v>0.8920081909250709</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2394,23 +2340,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_7.fasta</t>
+          <t>label_20298_2_29_5.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0778282587921412</v>
+        <v>1.656375894163414e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05107419325333472</v>
+        <v>0.1223016699971986</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0151906779667955</v>
+        <v>1.656375894163412e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8559068699877286</v>
+        <v>0.8776983300024701</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8559068699877286</v>
+        <v>0.8776983300024701</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2421,23 +2367,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_9.fasta</t>
+          <t>label_20298_2_29_17.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.07703520270333833</v>
+        <v>0.06185910471641613</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0580452742731623</v>
+        <v>0.08027881015772702</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01764679523633796</v>
+        <v>3.681716336874569e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8472727277871615</v>
+        <v>0.85786208512582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8472727277871615</v>
+        <v>0.85786208512582</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2448,23 +2394,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_0.fasta</t>
+          <t>label_20298_2_29_21.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.397090894901342e-13</v>
+        <v>0.1975137284595581</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1035172978968051</v>
+        <v>0.06908316975024958</v>
       </c>
       <c r="D36" t="n">
-        <v>2.39709089490134e-13</v>
+        <v>3.571620105367743e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8964827021027154</v>
+        <v>0.7334031017901567</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8964827021027154</v>
+        <v>0.7334031017901567</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2475,23 +2421,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_11.fasta</t>
+          <t>label_20298_2_29_29.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.811635557865115e-13</v>
+        <v>0.08180703590362114</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08093077338305389</v>
+        <v>0.04983839603545717</v>
       </c>
       <c r="D37" t="n">
-        <v>2.811635557865116e-13</v>
+        <v>3.509906389660805e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9190692266163838</v>
+        <v>0.8683545680608865</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9190692266163838</v>
+        <v>0.8683545680608865</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2502,23 +2448,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_12.fasta</t>
+          <t>label_20298_2_29_33.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.868930570258204e-13</v>
+        <v>0.07961647532507514</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07436105813055917</v>
+        <v>0.04538457299212945</v>
       </c>
       <c r="D38" t="n">
-        <v>2.868930570258204e-13</v>
+        <v>3.451486804781185e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.925638941868867</v>
+        <v>0.874998951682761</v>
       </c>
       <c r="F38" t="n">
-        <v>0.925638941868867</v>
+        <v>0.874998951682761</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2529,23 +2475,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_20.fasta</t>
+          <t>label_20298_2_29_37.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.14344417758256e-13</v>
+        <v>0.0737758143130002</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1243331508173356</v>
+        <v>0.05457781026956719</v>
       </c>
       <c r="D39" t="n">
-        <v>2.143444177582561e-13</v>
+        <v>4.47730794717491e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8756668491822357</v>
+        <v>0.8716463754173879</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8756668491822357</v>
+        <v>0.8716463754173879</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2556,23 +2502,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_25.fasta</t>
+          <t>label_20298_2_29_6.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.101459039011085e-13</v>
+        <v>0.07011119236825658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08773995983374018</v>
+        <v>0.03613921559138836</v>
       </c>
       <c r="D40" t="n">
-        <v>7.101459039011086e-13</v>
+        <v>3.739661926175702e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9122600401648395</v>
+        <v>0.8937495920403176</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9122600401648395</v>
+        <v>0.8937495920403176</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2583,322 +2529,25 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_29_28.fasta</t>
+          <t>label_20298_2_29_8.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.472950037839837e-13</v>
+        <v>0.03279501336354228</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08719190988643132</v>
+        <v>0.05238218088643883</v>
       </c>
       <c r="D41" t="n">
-        <v>7.472950037839838e-13</v>
+        <v>3.388542234790282e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9128080901120741</v>
+        <v>0.9148228057499851</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9128080901120741</v>
+        <v>0.9148228057499851</v>
       </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_3.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>2.427366461560831e-13</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.07066679838344432</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2.427366461560833e-13</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.9293332016160701</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.9293332016160701</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_34.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4.891262997368503e-13</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.1183495416615388</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.891262997368499e-13</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.8816504583374829</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.8816504583374829</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_35.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4.310476849600007e-13</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.1079918090740671</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.310476849600003e-13</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.8920081909250709</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.8920081909250709</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_5.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1.656375894163414e-13</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.1223016699971986</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.656375894163412e-13</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.8776983300024701</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.8776983300024701</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_17.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.06185910471641613</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.08027881015772702</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.681716336874569e-14</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.85786208512582</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.85786208512582</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_21.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1975137284595581</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.06908316975024958</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.571620105367743e-14</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.7334031017901567</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.7334031017901567</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_29.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.08180703590362114</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.04983839603545717</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.509906389660805e-14</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.8683545680608865</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.8683545680608865</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_33.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.07961647532507514</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.04538457299212945</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3.451486804781185e-14</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.874998951682761</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.874998951682761</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_37.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.0737758143130002</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.05457781026956719</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.47730794717491e-14</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.8716463754173879</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.8716463754173879</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_6.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.07011119236825658</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.03613921559138836</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.739661926175702e-14</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.8937495920403176</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.8937495920403176</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>g__Propionibacterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_29_8.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.03279501336354228</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.05238218088643883</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3.388542234790282e-14</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9148228057499851</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.9148228057499851</v>
-      </c>
-      <c r="G52" t="inlineStr">
         <is>
           <t>g__Propionibacterium</t>
         </is>
